--- a/100runs/run026/NotionalETEOutput026.xlsx
+++ b/100runs/run026/NotionalETEOutput026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,10 +52,31 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_182.MISSILE_HIGHWIND_182</t>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_381.MISSILE_HIGHWIND_381</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_337.MISSILE_HELLMASKER_337</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_48.MISSILE_HELLMASKER_48</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_320.MISSILE_SOMERSAULT_320</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G2">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H2">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I2">
-        <v>-1052.469254363028</v>
+        <v>1114863.031253801</v>
       </c>
       <c r="J2">
-        <v>2849.838284680288</v>
+        <v>4843230.882109591</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.128105567</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G3">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H3">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I3">
-        <v>-1031.690708832743</v>
+        <v>1114892.645294727</v>
       </c>
       <c r="J3">
-        <v>2780.513705298567</v>
+        <v>4843182.230444936</v>
       </c>
       <c r="K3">
-        <v>381.8586264582287</v>
+        <v>3984672.924006576</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G4">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H4">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I4">
-        <v>-1010.400510734687</v>
+        <v>1114922.988554166</v>
       </c>
       <c r="J4">
-        <v>2711.189125916846</v>
+        <v>4843133.57878028</v>
       </c>
       <c r="K4">
-        <v>744.6760314241446</v>
+        <v>3984961.57125141</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G5">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H5">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I5">
-        <v>-988.5860610950896</v>
+        <v>1114954.078988453</v>
       </c>
       <c r="J5">
-        <v>2641.864546535125</v>
+        <v>4843084.927115627</v>
       </c>
       <c r="K5">
-        <v>1088.452214897751</v>
+        <v>3985235.069840069</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G6">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H6">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I6">
-        <v>-966.2344507020426</v>
+        <v>1114985.934996082</v>
       </c>
       <c r="J6">
-        <v>2572.539967153404</v>
+        <v>4843036.275450972</v>
       </c>
       <c r="K6">
-        <v>1413.187176879044</v>
+        <v>3985493.419772554</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G7">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H7">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I7">
-        <v>-943.3324524661709</v>
+        <v>1115018.575428593</v>
       </c>
       <c r="J7">
-        <v>2503.215387771683</v>
+        <v>4842987.623786317</v>
       </c>
       <c r="K7">
-        <v>1718.880917368029</v>
+        <v>3985736.621048864</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G8">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H8">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I8">
-        <v>-919.8665135931932</v>
+        <v>1115052.019601724</v>
       </c>
       <c r="J8">
-        <v>2433.890808389961</v>
+        <v>4842938.972121662</v>
       </c>
       <c r="K8">
-        <v>2005.533436364701</v>
+        <v>3985964.673668998</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G9">
-        <v>-106.7796005281304</v>
+        <v>4841117.212748571</v>
       </c>
       <c r="H9">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I9">
-        <v>-895.8227475637364</v>
+        <v>1115086.287306851</v>
       </c>
       <c r="J9">
-        <v>2364.56622900824</v>
+        <v>4842890.320457007</v>
       </c>
       <c r="K9">
-        <v>2273.144733869062</v>
+        <v>3986177.577632959</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>282.5712369693696</v>
+        <v>1116577.715189352</v>
       </c>
       <c r="G10">
-        <v>-89.14728283292123</v>
+        <v>4841133.725542709</v>
       </c>
       <c r="H10">
-        <v>345.331427319367</v>
+        <v>3985225.460977978</v>
       </c>
       <c r="I10">
-        <v>-871.1869259156633</v>
+        <v>1115121.398822692</v>
       </c>
       <c r="J10">
-        <v>2295.24164962652</v>
+        <v>4842841.668792352</v>
       </c>
       <c r="K10">
-        <v>2521.714809881112</v>
+        <v>3986375.332940745</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>219.3082436480533</v>
+        <v>1116529.034659966</v>
       </c>
       <c r="G11">
-        <v>-71.51496513771205</v>
+        <v>4841150.238336847</v>
       </c>
       <c r="H11">
-        <v>425.4459947030107</v>
+        <v>3985424.715241389</v>
       </c>
       <c r="I11">
-        <v>-845.9444698240466</v>
+        <v>1115157.374927307</v>
       </c>
       <c r="J11">
-        <v>2225.917070244799</v>
+        <v>4842793.017127697</v>
       </c>
       <c r="K11">
-        <v>2751.243664400849</v>
+        <v>3986557.939592355</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>182.1444086861109</v>
+        <v>1116500.437291031</v>
       </c>
       <c r="G12">
-        <v>-53.88264744250288</v>
+        <v>4841166.751130986</v>
       </c>
       <c r="H12">
-        <v>473.1663282512322</v>
+        <v>3985543.401270926</v>
       </c>
       <c r="I12">
-        <v>-820.0804414738078</v>
+        <v>1115194.236910402</v>
       </c>
       <c r="J12">
-        <v>2156.592490863077</v>
+        <v>4842744.365463042</v>
       </c>
       <c r="K12">
-        <v>2961.731297428277</v>
+        <v>3986725.397587792</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>158.6838695812533</v>
+        <v>1116482.38453375</v>
       </c>
       <c r="G13">
-        <v>-36.2503297472937</v>
+        <v>4841183.263925124</v>
       </c>
       <c r="H13">
-        <v>507.2688253441023</v>
+        <v>3985628.218154554</v>
       </c>
       <c r="I13">
-        <v>-793.5795352199136</v>
+        <v>1115232.006585918</v>
       </c>
       <c r="J13">
-        <v>2087.267911481356</v>
+        <v>4842695.713798388</v>
       </c>
       <c r="K13">
-        <v>3153.177708963394</v>
+        <v>3986877.706927053</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>142.3225848414447</v>
+        <v>1116469.794614103</v>
       </c>
       <c r="G14">
-        <v>-18.61801205208451</v>
+        <v>4841199.776719262</v>
       </c>
       <c r="H14">
-        <v>533.8244215598939</v>
+        <v>3985694.265016395</v>
       </c>
       <c r="I14">
-        <v>-766.4260685299045</v>
+        <v>1115270.706304946</v>
       </c>
       <c r="J14">
-        <v>2017.943332099635</v>
+        <v>4842647.062133733</v>
       </c>
       <c r="K14">
-        <v>3325.5828990062</v>
+        <v>3987014.86761014</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>130.116576460973</v>
+        <v>1116460.402157021</v>
       </c>
       <c r="G15">
-        <v>-0.9856943568753377</v>
+        <v>4841216.2895134</v>
       </c>
       <c r="H15">
-        <v>555.5755147004277</v>
+        <v>3985748.362519304</v>
       </c>
       <c r="I15">
-        <v>-738.6039727033851</v>
+        <v>1115310.358968951</v>
       </c>
       <c r="J15">
-        <v>1948.618752717914</v>
+        <v>4842598.410469078</v>
       </c>
       <c r="K15">
-        <v>3478.946867556693</v>
+        <v>3987136.879637053</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>120.573182425981</v>
+        <v>1116453.058567201</v>
       </c>
       <c r="G16">
-        <v>16.64662333833385</v>
+        <v>4841232.802307538</v>
       </c>
       <c r="H16">
-        <v>573.9971028376152</v>
+        <v>3985794.179155341</v>
       </c>
       <c r="I16">
-        <v>-710.0967833629966</v>
+        <v>1115350.988043329</v>
       </c>
       <c r="J16">
-        <v>1879.294173336193</v>
+        <v>4842549.758804423</v>
       </c>
       <c r="K16">
-        <v>3613.269614614876</v>
+        <v>3987243.74300779</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>112.8518817743677</v>
+        <v>1116447.117068331</v>
       </c>
       <c r="G17">
-        <v>34.27894103354303</v>
+        <v>4841249.315101676</v>
       </c>
       <c r="H17">
-        <v>589.9744754754212</v>
+        <v>3985833.916742651</v>
       </c>
       <c r="I17">
-        <v>-680.887630711234</v>
+        <v>1115392.617571284</v>
       </c>
       <c r="J17">
-        <v>1809.969593954472</v>
+        <v>4842501.107139768</v>
       </c>
       <c r="K17">
-        <v>3728.551140180747</v>
+        <v>3987335.457722352</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>106.4404509799782</v>
+        <v>1116442.183507195</v>
       </c>
       <c r="G18">
-        <v>51.91125872875221</v>
+        <v>4841265.827895815</v>
       </c>
       <c r="H18">
-        <v>604.0809144944895</v>
+        <v>3985869.001100064</v>
       </c>
       <c r="I18">
-        <v>-650.9592295473498</v>
+        <v>1115435.272188067</v>
       </c>
       <c r="J18">
-        <v>1740.64501457275</v>
+        <v>4842452.455475113</v>
       </c>
       <c r="K18">
-        <v>3824.791444254308</v>
+        <v>3987412.023780741</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>101.0072457819618</v>
+        <v>1116438.002685337</v>
       </c>
       <c r="G19">
-        <v>69.54357642396141</v>
+        <v>4841282.340689952</v>
       </c>
       <c r="H19">
-        <v>616.7090160394628</v>
+        <v>3985900.408659935</v>
       </c>
       <c r="I19">
-        <v>-620.2938690384289</v>
+        <v>1115478.977135547</v>
       </c>
       <c r="J19">
-        <v>1671.320435191029</v>
+        <v>4842403.803810459</v>
       </c>
       <c r="K19">
-        <v>3901.990526835557</v>
+        <v>3987473.441182954</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>96.32706956935994</v>
+        <v>1116434.401315189</v>
       </c>
       <c r="G20">
-        <v>87.17589411917058</v>
+        <v>4841298.85348409</v>
       </c>
       <c r="H20">
-        <v>628.139453564555</v>
+        <v>3985928.837489846</v>
       </c>
       <c r="I20">
-        <v>-588.8734022385901</v>
+        <v>1115523.758277151</v>
       </c>
       <c r="J20">
-        <v>1601.995855809308</v>
+        <v>4842355.152145803</v>
       </c>
       <c r="K20">
-        <v>3960.148387924496</v>
+        <v>3987519.709928993</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>92.24103390293635</v>
+        <v>1116431.25713296</v>
       </c>
       <c r="G21">
-        <v>104.8082118143797</v>
+        <v>4841315.366278229</v>
       </c>
       <c r="H21">
-        <v>638.5798530918048</v>
+        <v>3985954.803979904</v>
       </c>
       <c r="I21">
-        <v>-556.6792353501049</v>
+        <v>1115569.642113169</v>
       </c>
       <c r="J21">
-        <v>1532.671276427587</v>
+        <v>4842306.500481149</v>
       </c>
       <c r="K21">
-        <v>3999.265027521122</v>
+        <v>3987550.830018857</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>88.63345059954582</v>
+        <v>1116428.481117223</v>
       </c>
       <c r="G22">
-        <v>122.440529509589</v>
+        <v>4841331.879072366</v>
       </c>
       <c r="H22">
-        <v>648.1881302165174</v>
+        <v>3985978.700884596</v>
       </c>
       <c r="I22">
-        <v>-523.6923167200811</v>
+        <v>1115616.655796437</v>
       </c>
       <c r="J22">
-        <v>1463.346697045866</v>
+        <v>4842257.848816494</v>
       </c>
       <c r="K22">
-        <v>4019.340445625438</v>
+        <v>3987566.801452546</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>85.41784232001645</v>
+        <v>1116426.006724136</v>
       </c>
       <c r="G23">
-        <v>140.0728472047981</v>
+        <v>4841348.391866505</v>
       </c>
       <c r="H23">
-        <v>657.0871929641233</v>
+        <v>3986000.833890498</v>
       </c>
       <c r="I23">
-        <v>-489.8931255662014</v>
+        <v>1115664.827148403</v>
       </c>
       <c r="J23">
-        <v>1394.022117664145</v>
+        <v>4842209.19715184</v>
       </c>
       <c r="K23">
-        <v>4020.374642237443</v>
+        <v>3987567.62423006</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>82.52811044306155</v>
+        <v>1116423.783091169</v>
       </c>
       <c r="G24">
-        <v>157.7051649000073</v>
+        <v>4841364.904660643</v>
       </c>
       <c r="H24">
-        <v>665.374581102218</v>
+        <v>3986021.44559038</v>
       </c>
       <c r="I24">
-        <v>-455.2616604248435</v>
+        <v>1115714.184675594</v>
       </c>
       <c r="J24">
-        <v>1324.697538282424</v>
+        <v>4842160.545487184</v>
       </c>
       <c r="K24">
-        <v>4002.367617357136</v>
+        <v>3987553.2983514</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>79.91275735096571</v>
+        <v>1116421.770591185</v>
       </c>
       <c r="G25">
-        <v>175.3374825952165</v>
+        <v>4841381.417454781</v>
       </c>
       <c r="H25">
-        <v>673.1290003407024</v>
+        <v>3986040.731734511</v>
       </c>
       <c r="I25">
-        <v>-419.7774273147429</v>
+        <v>1115764.757586485</v>
       </c>
       <c r="J25">
-        <v>1255.372958900703</v>
+        <v>4842111.893822529</v>
       </c>
       <c r="K25">
-        <v>3965.319370984519</v>
+        <v>3987523.823816565</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>77.53099001797983</v>
+        <v>1116419.937834173</v>
       </c>
       <c r="G26">
-        <v>192.9698002904257</v>
+        <v>4841397.93024892</v>
       </c>
       <c r="H26">
-        <v>680.4148794099785</v>
+        <v>3986058.85256465</v>
       </c>
       <c r="I26">
-        <v>-383.4194276092022</v>
+        <v>1115816.57580878</v>
       </c>
       <c r="J26">
-        <v>1186.048379518982</v>
+        <v>4842063.242157875</v>
       </c>
       <c r="K26">
-        <v>3909.22990311959</v>
+        <v>3987479.200625555</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>75.35002212003531</v>
+        <v>1116418.259591233</v>
       </c>
       <c r="G27">
-        <v>210.6021179856348</v>
+        <v>4841414.443043057</v>
       </c>
       <c r="H27">
-        <v>687.2856271207273</v>
+        <v>3986075.940914733</v>
       </c>
       <c r="I27">
-        <v>-346.1661456096589</v>
+        <v>1115869.670007127</v>
       </c>
       <c r="J27">
-        <v>1116.72380013726</v>
+        <v>4842014.590493219</v>
       </c>
       <c r="K27">
-        <v>3834.09921376235</v>
+        <v>3987419.428778371</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>73.34316242908235</v>
+        <v>1116416.715323613</v>
       </c>
       <c r="G28">
-        <v>228.234435680844</v>
+        <v>4841430.955837196</v>
       </c>
       <c r="H28">
-        <v>693.7860105202691</v>
+        <v>3986092.108125622</v>
       </c>
       <c r="I28">
-        <v>-307.9955358132682</v>
+        <v>1115924.071601262</v>
       </c>
       <c r="J28">
-        <v>1047.399220755539</v>
+        <v>4841965.938828565</v>
       </c>
       <c r="K28">
-        <v>3739.927302912799</v>
+        <v>3987344.508275012</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>71.48843250614745</v>
+        <v>1116415.288119022</v>
       </c>
       <c r="G29">
-        <v>245.8667533760533</v>
+        <v>4841447.468631334</v>
       </c>
       <c r="H29">
-        <v>699.9539242327521</v>
+        <v>3986107.448445662</v>
       </c>
       <c r="I29">
-        <v>-268.8850098669579</v>
+        <v>1115979.812784605</v>
       </c>
       <c r="J29">
-        <v>978.0746413738182</v>
+        <v>4841917.28716391</v>
       </c>
       <c r="K29">
-        <v>3626.714170570936</v>
+        <v>3987254.439115479</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>69.76754891196472</v>
+        <v>1116413.963908453</v>
       </c>
       <c r="G30">
-        <v>263.4990710712624</v>
+        <v>4841463.981425472</v>
       </c>
       <c r="H30">
-        <v>705.8217289392412</v>
+        <v>3986122.042359638</v>
       </c>
       <c r="I30">
-        <v>-228.811423200244</v>
+        <v>1116036.926543306</v>
       </c>
       <c r="J30">
-        <v>908.7500619920969</v>
+        <v>4841868.635499256</v>
       </c>
       <c r="K30">
-        <v>3494.459816736762</v>
+        <v>3987149.22129977</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>68.16516160232209</v>
+        <v>1116412.730880131</v>
       </c>
       <c r="G31">
-        <v>281.1313887664716</v>
+        <v>4841480.49421961</v>
       </c>
       <c r="H31">
-        <v>711.4172790768444</v>
+        <v>3986135.95914478</v>
       </c>
       <c r="I31">
-        <v>-187.7510613288861</v>
+        <v>1116095.446675772</v>
       </c>
       <c r="J31">
-        <v>839.425482610376</v>
+        <v>4841819.9838346</v>
       </c>
       <c r="K31">
-        <v>3343.164241410278</v>
+        <v>3987028.854827887</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>66.66827567855059</v>
+        <v>1116411.579034551</v>
       </c>
       <c r="G32">
-        <v>298.7637064616808</v>
+        <v>4841497.007013748</v>
       </c>
       <c r="H32">
-        <v>716.7647225197484</v>
+        <v>3986149.258859666</v>
       </c>
       <c r="I32">
-        <v>-145.6796258212863</v>
+        <v>1116155.407812662</v>
       </c>
       <c r="J32">
-        <v>770.1009032286548</v>
+        <v>4841771.332169945</v>
       </c>
       <c r="K32">
-        <v>3172.827444591482</v>
+        <v>3986893.339699829</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>65.26580653953052</v>
+        <v>1116410.499842174</v>
       </c>
       <c r="G33">
-        <v>316.39602415689</v>
+        <v>4841513.519807886</v>
       </c>
       <c r="H33">
-        <v>721.8851303805035</v>
+        <v>3986161.993910606</v>
       </c>
       <c r="I33">
-        <v>-102.5722199193226</v>
+        <v>1116216.845437386</v>
       </c>
       <c r="J33">
-        <v>700.7763238469339</v>
+        <v>4841722.680505291</v>
       </c>
       <c r="K33">
-        <v>2983.449426280376</v>
+        <v>3986742.675915596</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>63.94823354548311</v>
+        <v>1116409.485976919</v>
       </c>
       <c r="G34">
-        <v>334.0283418520991</v>
+        <v>4841530.032602024</v>
       </c>
       <c r="H34">
-        <v>726.7969984782931</v>
+        <v>3986174.210298858</v>
       </c>
       <c r="I34">
-        <v>-58.40333380510915</v>
+        <v>1116279.795907096</v>
       </c>
       <c r="J34">
-        <v>631.4517444652126</v>
+        <v>4841674.028840636</v>
       </c>
       <c r="K34">
-        <v>2775.030186476957</v>
+        <v>3986576.863475189</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>62.70732742076337</v>
+        <v>1116408.531106404</v>
       </c>
       <c r="G35">
-        <v>351.6606595473083</v>
+        <v>4841546.545396162</v>
       </c>
       <c r="H35">
-        <v>731.5166506293667</v>
+        <v>3986185.948623654</v>
       </c>
       <c r="I35">
-        <v>-13.14682950496356</v>
+        <v>1116344.296474209</v>
       </c>
       <c r="J35">
-        <v>562.1271650834914</v>
+        <v>4841625.37717598</v>
       </c>
       <c r="K35">
-        <v>2547.569725181228</v>
+        <v>3986395.902378607</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>61.53593354020063</v>
+        <v>1116407.629725181</v>
       </c>
       <c r="G36">
-        <v>369.2929772425175</v>
+        <v>4841563.0581903</v>
       </c>
       <c r="H36">
-        <v>736.0585659587198</v>
+        <v>3986197.244896268</v>
       </c>
       <c r="I36">
-        <v>33.22407457835273</v>
+        <v>1116410.385308448</v>
       </c>
       <c r="J36">
-        <v>492.8025857017705</v>
+        <v>4841576.725511326</v>
       </c>
       <c r="K36">
-        <v>2301.068042393187</v>
+        <v>3986199.792625851</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>60.42779805123607</v>
+        <v>1116406.777020948</v>
       </c>
       <c r="G37">
-        <v>386.9252949377267</v>
+        <v>4841579.570984439</v>
       </c>
       <c r="H37">
-        <v>740.4356467881282</v>
+        <v>3986208.131206274</v>
       </c>
       <c r="I37">
-        <v>80.73681951427109</v>
+        <v>1116478.10151943</v>
       </c>
       <c r="J37">
-        <v>423.4780063200492</v>
+        <v>4841528.073846672</v>
       </c>
       <c r="K37">
-        <v>2035.525138112836</v>
+        <v>3985988.534216919</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>59.37742717605703</v>
+        <v>1116405.96876627</v>
       </c>
       <c r="G38">
-        <v>404.5576126329358</v>
+        <v>4841596.083778577</v>
       </c>
       <c r="H38">
-        <v>744.6594395942903</v>
+        <v>3986218.636271106</v>
       </c>
       <c r="I38">
-        <v>129.419522083313</v>
+        <v>1116547.485179809</v>
       </c>
       <c r="J38">
-        <v>354.1534269383283</v>
+        <v>4841479.422182017</v>
       </c>
       <c r="K38">
-        <v>1750.941012340174</v>
+        <v>3985762.127151812</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>58.37997246434434</v>
+        <v>1116405.201230293</v>
       </c>
       <c r="G39">
-        <v>422.1899303281451</v>
+        <v>4841612.596572715</v>
       </c>
       <c r="H39">
-        <v>748.7403185696993</v>
+        <v>3986228.78589259</v>
       </c>
       <c r="I39">
-        <v>179.300991415852</v>
+        <v>1116618.577348993</v>
       </c>
       <c r="J39">
-        <v>284.8288475566071</v>
+        <v>4841430.770517361</v>
       </c>
       <c r="K39">
-        <v>1447.315665075198</v>
+        <v>3985520.571430532</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>57.43113652524335</v>
+        <v>1116404.471106197</v>
       </c>
       <c r="G40">
-        <v>439.8222480233542</v>
+        <v>4841629.109366854</v>
       </c>
       <c r="H40">
-        <v>752.6876391336225</v>
+        <v>3986238.603338744</v>
       </c>
       <c r="I40">
-        <v>230.4107460405949</v>
+        <v>1116691.42009744</v>
       </c>
       <c r="J40">
-        <v>215.5042681748859</v>
+        <v>4841382.118852707</v>
       </c>
       <c r="K40">
-        <v>1124.649096317913</v>
+        <v>3985263.867053077</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>56.52709505602038</v>
+        <v>1116403.775451202</v>
       </c>
       <c r="G41">
-        <v>457.4545657185634</v>
+        <v>4841645.622160991</v>
       </c>
       <c r="H41">
-        <v>756.5098671097082</v>
+        <v>3986248.109665057</v>
       </c>
       <c r="I41">
-        <v>282.7790313528592</v>
+        <v>1116766.056531554</v>
       </c>
       <c r="J41">
-        <v>146.1796887931649</v>
+        <v>4841333.467188052</v>
       </c>
       <c r="K41">
-        <v>782.9413060683175</v>
+        <v>3984992.014019446</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>55.66443194021195</v>
+        <v>1116403.111636625</v>
       </c>
       <c r="G42">
-        <v>475.0868834137726</v>
+        <v>4841662.13495513</v>
       </c>
       <c r="H42">
-        <v>760.2146880569089</v>
+        <v>3986257.323986409</v>
       </c>
       <c r="I42">
-        <v>336.4368375130001</v>
+        <v>1116842.530819193</v>
       </c>
       <c r="J42">
-        <v>76.85510941144371</v>
+        <v>4841284.815523397</v>
       </c>
       <c r="K42">
-        <v>422.1922943264095</v>
+        <v>3984705.012329641</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>54.84008490347394</v>
+        <v>1116402.477306062</v>
       </c>
       <c r="G43">
-        <v>492.7192011089818</v>
+        <v>4841678.647749268</v>
       </c>
       <c r="H43">
-        <v>763.8091003039647</v>
+        <v>3986266.263708461</v>
       </c>
       <c r="I43">
-        <v>391.4159177855574</v>
+        <v>1116920.88821581</v>
       </c>
       <c r="J43">
-        <v>7.530530029722463</v>
+        <v>4841236.163858742</v>
       </c>
       <c r="K43">
-        <v>42.40206109219054</v>
+        <v>3984402.861983662</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>54.0512997562147</v>
+        <v>1116401.87034018</v>
       </c>
       <c r="G44">
-        <v>510.351518804191</v>
+        <v>4841695.160543405</v>
       </c>
       <c r="H44">
-        <v>767.2994945181624</v>
+        <v>3986274.944725545</v>
       </c>
       <c r="I44">
-        <v>447.7488073299997</v>
+        <v>1117001.175091231</v>
       </c>
       <c r="J44">
-        <v>-61.79404935199845</v>
+        <v>4841187.512194088</v>
       </c>
       <c r="K44">
-        <v>-356.4293936343385</v>
+        <v>3984085.562981507</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>53.29559166468507</v>
+        <v>1116401.288826913</v>
       </c>
       <c r="G45">
-        <v>527.9838364994001</v>
+        <v>4841711.673337544</v>
       </c>
       <c r="H45">
-        <v>770.691722081541</v>
+        <v>3986283.381590731</v>
       </c>
       <c r="I45">
-        <v>505.4688424541661</v>
+        <v>1117083.438957097</v>
       </c>
       <c r="J45">
-        <v>-131.1186287337197</v>
+        <v>4841138.860529433</v>
       </c>
       <c r="K45">
-        <v>-774.3020698531798</v>
+        <v>3983753.115323178</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>52.57071220957601</v>
+        <v>1116400.731036113</v>
       </c>
       <c r="G46">
-        <v>545.6161541946094</v>
+        <v>4841728.186131681</v>
       </c>
       <c r="H46">
-        <v>773.9911541122441</v>
+        <v>3986291.587662616</v>
       </c>
       <c r="I46">
-        <v>564.6101803418068</v>
+        <v>1117167.728494979</v>
       </c>
       <c r="J46">
-        <v>-200.4432081154409</v>
+        <v>4841090.208864777</v>
       </c>
       <c r="K46">
-        <v>-1211.215967564333</v>
+        <v>3983405.519008674</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>51.87462123725354</v>
+        <v>1116400.195397895</v>
       </c>
       <c r="G47">
-        <v>563.2484718898185</v>
+        <v>4841744.69892582</v>
       </c>
       <c r="H47">
-        <v>777.2027326260555</v>
+        <v>3986299.575232568</v>
       </c>
       <c r="I47">
-        <v>625.2078192658973</v>
+        <v>1117254.093585186</v>
       </c>
       <c r="J47">
-        <v>-269.7677874971621</v>
+        <v>4841041.557200123</v>
       </c>
       <c r="K47">
-        <v>-1667.171086767797</v>
+        <v>3983042.774037996</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>51.20546270096386</v>
+        <v>1116399.68048404</v>
       </c>
       <c r="G48">
-        <v>580.8807895850276</v>
+        <v>4841761.211719958</v>
       </c>
       <c r="H48">
-        <v>780.3310150616254</v>
+        <v>3986307.355635468</v>
       </c>
       <c r="I48">
-        <v>687.2976192996877</v>
+        <v>1117342.585336285</v>
       </c>
       <c r="J48">
-        <v>-339.0923668788827</v>
+        <v>4840992.905535468</v>
       </c>
       <c r="K48">
-        <v>-2142.167427463569</v>
+        <v>3982664.880411142</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>50.56154384053136</v>
+        <v>1116399.184991978</v>
       </c>
       <c r="G49">
-        <v>598.5131072802369</v>
+        <v>4841777.724514096</v>
       </c>
       <c r="H49">
-        <v>783.3802131762938</v>
+        <v>3986314.939346449</v>
       </c>
       <c r="I49">
-        <v>750.9163235377423</v>
+        <v>1117433.256115344</v>
       </c>
       <c r="J49">
-        <v>-408.416946260604</v>
+        <v>4840944.253870813</v>
       </c>
       <c r="K49">
-        <v>-2636.204989651655</v>
+        <v>3982271.838128115</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>49.9413171687794</v>
+        <v>1116398.707730926</v>
       </c>
       <c r="G50">
-        <v>616.1454249754461</v>
+        <v>4841794.237308234</v>
       </c>
       <c r="H50">
-        <v>786.354227145575</v>
+        <v>3986322.336065699</v>
       </c>
       <c r="I50">
-        <v>816.1015798395238</v>
+        <v>1117526.159578922</v>
       </c>
       <c r="J50">
-        <v>-477.7415256423252</v>
+        <v>4840895.602206158</v>
       </c>
       <c r="K50">
-        <v>-3149.283773332053</v>
+        <v>3981863.647188912</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>49.34336482828382</v>
+        <v>1116398.247609851</v>
       </c>
       <c r="G51">
-        <v>633.7777426706551</v>
+        <v>4841810.750102373</v>
       </c>
       <c r="H51">
-        <v>789.2566755589918</v>
+        <v>3986329.554793074</v>
       </c>
       <c r="I51">
-        <v>882.8919631084004</v>
+        <v>1117621.35070482</v>
       </c>
       <c r="J51">
-        <v>-547.0661050240465</v>
+        <v>4840846.950541503</v>
       </c>
       <c r="K51">
-        <v>-3681.403778504761</v>
+        <v>3981440.307593535</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>48.76638495851936</v>
+        <v>1116397.803626979</v>
       </c>
       <c r="G52">
-        <v>651.4100603658644</v>
+        <v>4841827.262896511</v>
       </c>
       <c r="H52">
-        <v>792.0909218909718</v>
+        <v>3986336.603893926</v>
       </c>
       <c r="I52">
-        <v>951.3269981192481</v>
+        <v>1117718.88582462</v>
       </c>
       <c r="J52">
-        <v>-616.3906844057677</v>
+        <v>4840798.298876849</v>
       </c>
       <c r="K52">
-        <v>-4232.56500516978</v>
+        <v>3981001.819341983</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>48.20917977507214</v>
+        <v>1116397.37486062</v>
       </c>
       <c r="G53">
-        <v>669.0423780610736</v>
+        <v>4841843.775690649</v>
       </c>
       <c r="H53">
-        <v>794.8600979324922</v>
+        <v>3986343.491157384</v>
       </c>
       <c r="I53">
-        <v>1021.447182908158</v>
+        <v>1117818.822657014</v>
       </c>
       <c r="J53">
-        <v>-685.7152637874883</v>
+        <v>4840749.647212194</v>
       </c>
       <c r="K53">
-        <v>-4802.767453327107</v>
+        <v>3980548.182434256</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2303,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>47.6706451125276</v>
+        <v>1116396.960461125</v>
       </c>
       <c r="G54">
-        <v>686.6746957562827</v>
+        <v>4841860.288484788</v>
       </c>
       <c r="H54">
-        <v>797.5671245928316</v>
+        <v>3986350.223848091</v>
       </c>
       <c r="I54">
-        <v>1093.29401273811</v>
+        <v>1117921.220341965</v>
       </c>
       <c r="J54">
-        <v>-755.0398431692096</v>
+        <v>4840700.995547539</v>
       </c>
       <c r="K54">
-        <v>-5392.01112297675</v>
+        <v>3980079.396870355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G55">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H55">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I55">
+        <v>1114860.558970555</v>
+      </c>
+      <c r="J55">
+        <v>4843227.239900501</v>
+      </c>
+      <c r="K55">
+        <v>3984370.654708556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G56">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H56">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I56">
+        <v>1114890.172945809</v>
+      </c>
+      <c r="J56">
+        <v>4843178.588272433</v>
+      </c>
+      <c r="K56">
+        <v>3984674.450725963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G57">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H57">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I57">
+        <v>1114920.51613796</v>
+      </c>
+      <c r="J57">
+        <v>4843129.936644364</v>
+      </c>
+      <c r="K57">
+        <v>3984963.098081392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G58">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H58">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I58">
+        <v>1114951.606503302</v>
+      </c>
+      <c r="J58">
+        <v>4843081.285016296</v>
+      </c>
+      <c r="K58">
+        <v>3985236.596774841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G59">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H59">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I59">
+        <v>1114983.462440289</v>
+      </c>
+      <c r="J59">
+        <v>4843032.633388229</v>
+      </c>
+      <c r="K59">
+        <v>3985494.946806312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G60">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H60">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I60">
+        <v>1115016.102800416</v>
+      </c>
+      <c r="J60">
+        <v>4842983.981760161</v>
+      </c>
+      <c r="K60">
+        <v>3985738.148175804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G61">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H61">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I61">
+        <v>1115049.546899383</v>
+      </c>
+      <c r="J61">
+        <v>4842935.330132093</v>
+      </c>
+      <c r="K61">
+        <v>3985966.200883317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G62">
+        <v>4841121.310839741</v>
+      </c>
+      <c r="H62">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I62">
+        <v>1115083.81452852</v>
+      </c>
+      <c r="J62">
+        <v>4842886.678504026</v>
+      </c>
+      <c r="K62">
+        <v>3986179.104928852</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116578.909789901</v>
+      </c>
+      <c r="G63">
+        <v>4841137.823647858</v>
+      </c>
+      <c r="H63">
+        <v>3985223.875294697</v>
+      </c>
+      <c r="I63">
+        <v>1115118.925966498</v>
+      </c>
+      <c r="J63">
+        <v>4842838.026875958</v>
+      </c>
+      <c r="K63">
+        <v>3986376.860312406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116530.229208433</v>
+      </c>
+      <c r="G64">
+        <v>4841154.336455974</v>
+      </c>
+      <c r="H64">
+        <v>3985423.129478827</v>
+      </c>
+      <c r="I64">
+        <v>1115154.901991334</v>
+      </c>
+      <c r="J64">
+        <v>4842789.37524789</v>
+      </c>
+      <c r="K64">
+        <v>3986559.467033983</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116501.631808902</v>
+      </c>
+      <c r="G65">
+        <v>4841170.84926409</v>
+      </c>
+      <c r="H65">
+        <v>3985541.81546114</v>
+      </c>
+      <c r="I65">
+        <v>1115191.763892685</v>
+      </c>
+      <c r="J65">
+        <v>4842740.723619821</v>
+      </c>
+      <c r="K65">
+        <v>3986726.925093581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116483.579032307</v>
+      </c>
+      <c r="G66">
+        <v>4841187.362072207</v>
+      </c>
+      <c r="H66">
+        <v>3985626.632311021</v>
+      </c>
+      <c r="I66">
+        <v>1115229.533484444</v>
+      </c>
+      <c r="J66">
+        <v>4842692.071991754</v>
+      </c>
+      <c r="K66">
+        <v>3986879.234491199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116470.98909919</v>
+      </c>
+      <c r="G67">
+        <v>4841203.874880323</v>
+      </c>
+      <c r="H67">
+        <v>3985692.679146581</v>
+      </c>
+      <c r="I67">
+        <v>1115268.233117652</v>
+      </c>
+      <c r="J67">
+        <v>4842643.420363687</v>
+      </c>
+      <c r="K67">
+        <v>3987016.395226839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116461.596632059</v>
+      </c>
+      <c r="G68">
+        <v>4841220.38768844</v>
+      </c>
+      <c r="H68">
+        <v>3985746.776627966</v>
+      </c>
+      <c r="I68">
+        <v>1115307.885693726</v>
+      </c>
+      <c r="J68">
+        <v>4842594.768735619</v>
+      </c>
+      <c r="K68">
+        <v>3987138.407300499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116454.253034382</v>
+      </c>
+      <c r="G69">
+        <v>4841236.900496555</v>
+      </c>
+      <c r="H69">
+        <v>3985792.593245773</v>
+      </c>
+      <c r="I69">
+        <v>1115348.514678005</v>
+      </c>
+      <c r="J69">
+        <v>4842546.117107551</v>
+      </c>
+      <c r="K69">
+        <v>3987245.270712181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116448.311529156</v>
+      </c>
+      <c r="G70">
+        <v>4841253.413304673</v>
+      </c>
+      <c r="H70">
+        <v>3985832.330817272</v>
+      </c>
+      <c r="I70">
+        <v>1115390.144113645</v>
+      </c>
+      <c r="J70">
+        <v>4842497.465479483</v>
+      </c>
+      <c r="K70">
+        <v>3987336.985461884</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116443.377962742</v>
+      </c>
+      <c r="G71">
+        <v>4841269.92611279</v>
+      </c>
+      <c r="H71">
+        <v>3985867.415160725</v>
+      </c>
+      <c r="I71">
+        <v>1115432.798635838</v>
+      </c>
+      <c r="J71">
+        <v>4842448.813851415</v>
+      </c>
+      <c r="K71">
+        <v>3987413.551549608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116439.197136411</v>
+      </c>
+      <c r="G72">
+        <v>4841286.438920906</v>
+      </c>
+      <c r="H72">
+        <v>3985898.822708099</v>
+      </c>
+      <c r="I72">
+        <v>1115476.5034864</v>
+      </c>
+      <c r="J72">
+        <v>4842400.162223348</v>
+      </c>
+      <c r="K72">
+        <v>3987474.968975354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116435.595762409</v>
+      </c>
+      <c r="G73">
+        <v>4841302.951729022</v>
+      </c>
+      <c r="H73">
+        <v>3985927.251526698</v>
+      </c>
+      <c r="I73">
+        <v>1115521.284528699</v>
+      </c>
+      <c r="J73">
+        <v>4842351.51059528</v>
+      </c>
+      <c r="K73">
+        <v>3987521.23773912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116432.451576817</v>
+      </c>
+      <c r="G74">
+        <v>4841319.464537139</v>
+      </c>
+      <c r="H74">
+        <v>3985953.218006425</v>
+      </c>
+      <c r="I74">
+        <v>1115567.168262966</v>
+      </c>
+      <c r="J74">
+        <v>4842302.858967212</v>
+      </c>
+      <c r="K74">
+        <v>3987552.357840908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116429.67555811</v>
+      </c>
+      <c r="G75">
+        <v>4841335.977345255</v>
+      </c>
+      <c r="H75">
+        <v>3985977.114901607</v>
+      </c>
+      <c r="I75">
+        <v>1115614.181841977</v>
+      </c>
+      <c r="J75">
+        <v>4842254.207339144</v>
+      </c>
+      <c r="K75">
+        <v>3987568.329280716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116427.201162376</v>
+      </c>
+      <c r="G76">
+        <v>4841352.490153372</v>
+      </c>
+      <c r="H76">
+        <v>3985999.247898704</v>
+      </c>
+      <c r="I76">
+        <v>1115662.35308712</v>
+      </c>
+      <c r="J76">
+        <v>4842205.555711077</v>
+      </c>
+      <c r="K76">
+        <v>3987569.152058546</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116424.97752703</v>
+      </c>
+      <c r="G77">
+        <v>4841369.002961488</v>
+      </c>
+      <c r="H77">
+        <v>3986019.859590385</v>
+      </c>
+      <c r="I77">
+        <v>1115711.710504858</v>
+      </c>
+      <c r="J77">
+        <v>4842156.904083008</v>
+      </c>
+      <c r="K77">
+        <v>3987554.826174397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116422.965024892</v>
+      </c>
+      <c r="G78">
+        <v>4841385.515769605</v>
+      </c>
+      <c r="H78">
+        <v>3986039.145726842</v>
+      </c>
+      <c r="I78">
+        <v>1115762.2833036</v>
+      </c>
+      <c r="J78">
+        <v>4842108.252454941</v>
+      </c>
+      <c r="K78">
+        <v>3987525.351628269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116421.132265919</v>
+      </c>
+      <c r="G79">
+        <v>4841402.028577722</v>
+      </c>
+      <c r="H79">
+        <v>3986057.266549771</v>
+      </c>
+      <c r="I79">
+        <v>1115814.101410984</v>
+      </c>
+      <c r="J79">
+        <v>4842059.600826873</v>
+      </c>
+      <c r="K79">
+        <v>3987480.728420162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116419.454021184</v>
+      </c>
+      <c r="G80">
+        <v>4841418.541385838</v>
+      </c>
+      <c r="H80">
+        <v>3986074.354893054</v>
+      </c>
+      <c r="I80">
+        <v>1115867.195491591</v>
+      </c>
+      <c r="J80">
+        <v>4842010.949198805</v>
+      </c>
+      <c r="K80">
+        <v>3987420.956550076</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116417.909751912</v>
+      </c>
+      <c r="G81">
+        <v>4841435.054193954</v>
+      </c>
+      <c r="H81">
+        <v>3986090.522097511</v>
+      </c>
+      <c r="I81">
+        <v>1115921.596965088</v>
+      </c>
+      <c r="J81">
+        <v>4841962.297570737</v>
+      </c>
+      <c r="K81">
+        <v>3987346.036018011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116416.482545794</v>
+      </c>
+      <c r="G82">
+        <v>4841451.567002071</v>
+      </c>
+      <c r="H82">
+        <v>3986105.862411447</v>
+      </c>
+      <c r="I82">
+        <v>1115977.338024821</v>
+      </c>
+      <c r="J82">
+        <v>4841913.645942669</v>
+      </c>
+      <c r="K82">
+        <v>3987255.966823968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116415.158333808</v>
+      </c>
+      <c r="G83">
+        <v>4841468.079810187</v>
+      </c>
+      <c r="H83">
+        <v>3986120.456319617</v>
+      </c>
+      <c r="I83">
+        <v>1116034.451656869</v>
+      </c>
+      <c r="J83">
+        <v>4841864.994314602</v>
+      </c>
+      <c r="K83">
+        <v>3987150.748967946</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116413.925304167</v>
+      </c>
+      <c r="G84">
+        <v>4841484.592618304</v>
+      </c>
+      <c r="H84">
+        <v>3986134.373099221</v>
+      </c>
+      <c r="I84">
+        <v>1116092.971659562</v>
+      </c>
+      <c r="J84">
+        <v>4841816.342686534</v>
+      </c>
+      <c r="K84">
+        <v>3987030.382449944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116412.773457355</v>
+      </c>
+      <c r="G85">
+        <v>4841501.10542642</v>
+      </c>
+      <c r="H85">
+        <v>3986147.672808815</v>
+      </c>
+      <c r="I85">
+        <v>1116152.932663485</v>
+      </c>
+      <c r="J85">
+        <v>4841767.691058466</v>
+      </c>
+      <c r="K85">
+        <v>3986894.867269964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116411.694263823</v>
+      </c>
+      <c r="G86">
+        <v>4841517.618234537</v>
+      </c>
+      <c r="H86">
+        <v>3986160.407854687</v>
+      </c>
+      <c r="I86">
+        <v>1116214.370151966</v>
+      </c>
+      <c r="J86">
+        <v>4841719.039430398</v>
+      </c>
+      <c r="K86">
+        <v>3986744.203428005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116410.680397484</v>
+      </c>
+      <c r="G87">
+        <v>4841534.131042654</v>
+      </c>
+      <c r="H87">
+        <v>3986172.624238078</v>
+      </c>
+      <c r="I87">
+        <v>1116277.320482079</v>
+      </c>
+      <c r="J87">
+        <v>4841670.387802331</v>
+      </c>
+      <c r="K87">
+        <v>3986578.390924067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116409.725525946</v>
+      </c>
+      <c r="G88">
+        <v>4841550.643850769</v>
+      </c>
+      <c r="H88">
+        <v>3986184.362558205</v>
+      </c>
+      <c r="I88">
+        <v>1116341.820906158</v>
+      </c>
+      <c r="J88">
+        <v>4841621.736174262</v>
+      </c>
+      <c r="K88">
+        <v>3986397.42975815</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116408.82414376</v>
+      </c>
+      <c r="G89">
+        <v>4841567.156658886</v>
+      </c>
+      <c r="H89">
+        <v>3986195.658826323</v>
+      </c>
+      <c r="I89">
+        <v>1116407.909593841</v>
+      </c>
+      <c r="J89">
+        <v>4841573.084546194</v>
+      </c>
+      <c r="K89">
+        <v>3986201.319930254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116407.971438614</v>
+      </c>
+      <c r="G90">
+        <v>4841583.669467003</v>
+      </c>
+      <c r="H90">
+        <v>3986206.545131998</v>
+      </c>
+      <c r="I90">
+        <v>1116475.625654657</v>
+      </c>
+      <c r="J90">
+        <v>4841524.432918128</v>
+      </c>
+      <c r="K90">
+        <v>3985990.061440379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116407.163183072</v>
+      </c>
+      <c r="G91">
+        <v>4841600.182275119</v>
+      </c>
+      <c r="H91">
+        <v>3986217.05019265</v>
+      </c>
+      <c r="I91">
+        <v>1116545.009161174</v>
+      </c>
+      <c r="J91">
+        <v>4841475.78129006</v>
+      </c>
+      <c r="K91">
+        <v>3985763.654288526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116406.395646273</v>
+      </c>
+      <c r="G92">
+        <v>4841616.695083235</v>
+      </c>
+      <c r="H92">
+        <v>3986227.199810096</v>
+      </c>
+      <c r="I92">
+        <v>1116616.101172706</v>
+      </c>
+      <c r="J92">
+        <v>4841427.129661991</v>
+      </c>
+      <c r="K92">
+        <v>3985522.098474693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116405.665521396</v>
+      </c>
+      <c r="G93">
+        <v>4841633.207891352</v>
+      </c>
+      <c r="H93">
+        <v>3986237.017252344</v>
+      </c>
+      <c r="I93">
+        <v>1116688.94375962</v>
+      </c>
+      <c r="J93">
+        <v>4841378.478033924</v>
+      </c>
+      <c r="K93">
+        <v>3985265.393998882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116404.969865657</v>
+      </c>
+      <c r="G94">
+        <v>4841649.720699469</v>
+      </c>
+      <c r="H94">
+        <v>3986246.523574874</v>
+      </c>
+      <c r="I94">
+        <v>1116763.580028221</v>
+      </c>
+      <c r="J94">
+        <v>4841329.826405856</v>
+      </c>
+      <c r="K94">
+        <v>3984993.540861092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116404.306050369</v>
+      </c>
+      <c r="G95">
+        <v>4841666.233507586</v>
+      </c>
+      <c r="H95">
+        <v>3986255.73789256</v>
+      </c>
+      <c r="I95">
+        <v>1116840.054146274</v>
+      </c>
+      <c r="J95">
+        <v>4841281.174777789</v>
+      </c>
+      <c r="K95">
+        <v>3984706.539061323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116403.671719128</v>
+      </c>
+      <c r="G96">
+        <v>4841682.746315702</v>
+      </c>
+      <c r="H96">
+        <v>3986264.677611055</v>
+      </c>
+      <c r="I96">
+        <v>1116918.411369128</v>
+      </c>
+      <c r="J96">
+        <v>4841232.52314972</v>
+      </c>
+      <c r="K96">
+        <v>3984404.388599575</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116403.064752597</v>
+      </c>
+      <c r="G97">
+        <v>4841699.259123818</v>
+      </c>
+      <c r="H97">
+        <v>3986273.358624685</v>
+      </c>
+      <c r="I97">
+        <v>1116998.698066508</v>
+      </c>
+      <c r="J97">
+        <v>4841183.871521653</v>
+      </c>
+      <c r="K97">
+        <v>3984087.089475848</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116402.483238707</v>
+      </c>
+      <c r="G98">
+        <v>4841715.771931935</v>
+      </c>
+      <c r="H98">
+        <v>3986281.795486514</v>
+      </c>
+      <c r="I98">
+        <v>1117080.961749949</v>
+      </c>
+      <c r="J98">
+        <v>4841135.219893585</v>
+      </c>
+      <c r="K98">
+        <v>3983754.641690142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116401.925447311</v>
+      </c>
+      <c r="G99">
+        <v>4841732.284740051</v>
+      </c>
+      <c r="H99">
+        <v>3986290.001555134</v>
+      </c>
+      <c r="I99">
+        <v>1117165.251100913</v>
+      </c>
+      <c r="J99">
+        <v>4841086.568265516</v>
+      </c>
+      <c r="K99">
+        <v>3983407.045242458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116401.38980852</v>
+      </c>
+      <c r="G100">
+        <v>4841748.797548167</v>
+      </c>
+      <c r="H100">
+        <v>3986297.989121907</v>
+      </c>
+      <c r="I100">
+        <v>1117251.615999599</v>
+      </c>
+      <c r="J100">
+        <v>4841037.916637449</v>
+      </c>
+      <c r="K100">
+        <v>3983044.300132795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116400.874894113</v>
+      </c>
+      <c r="G101">
+        <v>4841765.310356284</v>
+      </c>
+      <c r="H101">
+        <v>3986305.769521712</v>
+      </c>
+      <c r="I101">
+        <v>1117340.107554462</v>
+      </c>
+      <c r="J101">
+        <v>4840989.265009382</v>
+      </c>
+      <c r="K101">
+        <v>3982666.406361152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116400.379401521</v>
+      </c>
+      <c r="G102">
+        <v>4841781.823164401</v>
+      </c>
+      <c r="H102">
+        <v>3986313.353229675</v>
+      </c>
+      <c r="I102">
+        <v>1117430.778132452</v>
+      </c>
+      <c r="J102">
+        <v>4840940.613381314</v>
+      </c>
+      <c r="K102">
+        <v>3982273.363927531</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116399.902139959</v>
+      </c>
+      <c r="G103">
+        <v>4841798.335972518</v>
+      </c>
+      <c r="H103">
+        <v>3986320.749945982</v>
+      </c>
+      <c r="I103">
+        <v>1117523.68139001</v>
+      </c>
+      <c r="J103">
+        <v>4840891.961753245</v>
+      </c>
+      <c r="K103">
+        <v>3981865.172831931</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116399.442018392</v>
+      </c>
+      <c r="G104">
+        <v>4841814.848780634</v>
+      </c>
+      <c r="H104">
+        <v>3986327.968670485</v>
+      </c>
+      <c r="I104">
+        <v>1117618.872304816</v>
+      </c>
+      <c r="J104">
+        <v>4840843.310125178</v>
+      </c>
+      <c r="K104">
+        <v>3981441.833074352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116398.998035044</v>
+      </c>
+      <c r="G105">
+        <v>4841831.36158875</v>
+      </c>
+      <c r="H105">
+        <v>3986335.017768532</v>
+      </c>
+      <c r="I105">
+        <v>1117716.407208325</v>
+      </c>
+      <c r="J105">
+        <v>4840794.65849711</v>
+      </c>
+      <c r="K105">
+        <v>3981003.344654793</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116398.569268227</v>
+      </c>
+      <c r="G106">
+        <v>4841847.874396867</v>
+      </c>
+      <c r="H106">
+        <v>3986341.90502925</v>
+      </c>
+      <c r="I106">
+        <v>1117816.343819103</v>
+      </c>
+      <c r="J106">
+        <v>4840746.006869042</v>
+      </c>
+      <c r="K106">
+        <v>3980549.707573257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>26</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116398.154868288</v>
+      </c>
+      <c r="G107">
+        <v>4841864.387204984</v>
+      </c>
+      <c r="H107">
+        <v>3986348.637717277</v>
+      </c>
+      <c r="I107">
+        <v>1117918.74127698</v>
+      </c>
+      <c r="J107">
+        <v>4840697.355240975</v>
+      </c>
+      <c r="K107">
+        <v>3980080.921829741</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G108">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H108">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I108">
+        <v>1114861.397062919</v>
+      </c>
+      <c r="J108">
+        <v>4843225.374668847</v>
+      </c>
+      <c r="K108">
+        <v>3984361.57696396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G109">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H109">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I109">
+        <v>1114891.011060436</v>
+      </c>
+      <c r="J109">
+        <v>4843176.723059515</v>
+      </c>
+      <c r="K109">
+        <v>3984665.372289217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G110">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H110">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I110">
+        <v>1114921.354275397</v>
+      </c>
+      <c r="J110">
+        <v>4843128.071450184</v>
+      </c>
+      <c r="K110">
+        <v>3984954.018987009</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>26</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G111">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H111">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I111">
+        <v>1114952.444664111</v>
+      </c>
+      <c r="J111">
+        <v>4843079.419840854</v>
+      </c>
+      <c r="K111">
+        <v>3985227.517057336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G112">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H112">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I112">
+        <v>1114984.300625045</v>
+      </c>
+      <c r="J112">
+        <v>4843030.768231522</v>
+      </c>
+      <c r="K112">
+        <v>3985485.866500198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G113">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H113">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I113">
+        <v>1115016.94100971</v>
+      </c>
+      <c r="J113">
+        <v>4842982.116622192</v>
+      </c>
+      <c r="K113">
+        <v>3985729.067315595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G114">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H114">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I114">
+        <v>1115050.385133818</v>
+      </c>
+      <c r="J114">
+        <v>4842933.46501286</v>
+      </c>
+      <c r="K114">
+        <v>3985957.119503527</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G115">
+        <v>4841123.634186446</v>
+      </c>
+      <c r="H115">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I115">
+        <v>1115084.652788715</v>
+      </c>
+      <c r="J115">
+        <v>4842884.813403529</v>
+      </c>
+      <c r="K115">
+        <v>3986170.023063994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.336790415</v>
+      </c>
+      <c r="G116">
+        <v>4841140.147002487</v>
+      </c>
+      <c r="H116">
+        <v>3985227.160337033</v>
+      </c>
+      <c r="I116">
+        <v>1115119.764253088</v>
+      </c>
+      <c r="J116">
+        <v>4842836.161794199</v>
+      </c>
+      <c r="K116">
+        <v>3986367.777996995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.656233929</v>
+      </c>
+      <c r="G117">
+        <v>4841156.659818528</v>
+      </c>
+      <c r="H117">
+        <v>3985426.414685409</v>
+      </c>
+      <c r="I117">
+        <v>1115155.740304969</v>
+      </c>
+      <c r="J117">
+        <v>4842787.510184867</v>
+      </c>
+      <c r="K117">
+        <v>3986550.384302532</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.058849073</v>
+      </c>
+      <c r="G118">
+        <v>4841173.17263457</v>
+      </c>
+      <c r="H118">
+        <v>3985545.100765555</v>
+      </c>
+      <c r="I118">
+        <v>1115192.602234031</v>
+      </c>
+      <c r="J118">
+        <v>4842738.858575536</v>
+      </c>
+      <c r="K118">
+        <v>3986717.841980603</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.006081742</v>
+      </c>
+      <c r="G119">
+        <v>4841189.685450612</v>
+      </c>
+      <c r="H119">
+        <v>3985629.917685351</v>
+      </c>
+      <c r="I119">
+        <v>1115230.371854183</v>
+      </c>
+      <c r="J119">
+        <v>4842690.206966206</v>
+      </c>
+      <c r="K119">
+        <v>3986870.151031209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.416155086</v>
+      </c>
+      <c r="G120">
+        <v>4841206.198266652</v>
+      </c>
+      <c r="H120">
+        <v>3985695.964575354</v>
+      </c>
+      <c r="I120">
+        <v>1115269.071516484</v>
+      </c>
+      <c r="J120">
+        <v>4842641.555356874</v>
+      </c>
+      <c r="K120">
+        <v>3987007.31145435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.023692775</v>
+      </c>
+      <c r="G121">
+        <v>4841222.711082694</v>
+      </c>
+      <c r="H121">
+        <v>3985750.062101332</v>
+      </c>
+      <c r="I121">
+        <v>1115308.724122366</v>
+      </c>
+      <c r="J121">
+        <v>4842592.903747544</v>
+      </c>
+      <c r="K121">
+        <v>3987129.323250026</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.680098867</v>
+      </c>
+      <c r="G122">
+        <v>4841239.223898735</v>
+      </c>
+      <c r="H122">
+        <v>3985795.878756906</v>
+      </c>
+      <c r="I122">
+        <v>1115349.353137188</v>
+      </c>
+      <c r="J122">
+        <v>4842544.252138212</v>
+      </c>
+      <c r="K122">
+        <v>3987236.186418238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>26</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.73859669</v>
+      </c>
+      <c r="G123">
+        <v>4841255.736714777</v>
+      </c>
+      <c r="H123">
+        <v>3985835.616361161</v>
+      </c>
+      <c r="I123">
+        <v>1115390.982604122</v>
+      </c>
+      <c r="J123">
+        <v>4842495.600528881</v>
+      </c>
+      <c r="K123">
+        <v>3987327.900958983</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>26</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.805032808</v>
+      </c>
+      <c r="G124">
+        <v>4841272.249530818</v>
+      </c>
+      <c r="H124">
+        <v>3985870.700733534</v>
+      </c>
+      <c r="I124">
+        <v>1115433.637158382</v>
+      </c>
+      <c r="J124">
+        <v>4842446.948919551</v>
+      </c>
+      <c r="K124">
+        <v>3987404.466872264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>26</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.624208622</v>
+      </c>
+      <c r="G125">
+        <v>4841288.762346859</v>
+      </c>
+      <c r="H125">
+        <v>3985902.108306798</v>
+      </c>
+      <c r="I125">
+        <v>1115477.342041798</v>
+      </c>
+      <c r="J125">
+        <v>4842398.29731022</v>
+      </c>
+      <c r="K125">
+        <v>3987465.88415808</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>26</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.022836468</v>
+      </c>
+      <c r="G126">
+        <v>4841305.275162901</v>
+      </c>
+      <c r="H126">
+        <v>3985930.53714883</v>
+      </c>
+      <c r="I126">
+        <v>1115522.123117761</v>
+      </c>
+      <c r="J126">
+        <v>4842349.645700888</v>
+      </c>
+      <c r="K126">
+        <v>3987512.15281643</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.87865249</v>
+      </c>
+      <c r="G127">
+        <v>4841321.787978943</v>
+      </c>
+      <c r="H127">
+        <v>3985956.503649962</v>
+      </c>
+      <c r="I127">
+        <v>1115568.006886521</v>
+      </c>
+      <c r="J127">
+        <v>4842300.994091557</v>
+      </c>
+      <c r="K127">
+        <v>3987543.272847315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.102635207</v>
+      </c>
+      <c r="G128">
+        <v>4841338.300794983</v>
+      </c>
+      <c r="H128">
+        <v>3985980.400564843</v>
+      </c>
+      <c r="I128">
+        <v>1115615.020500875</v>
+      </c>
+      <c r="J128">
+        <v>4842252.342482227</v>
+      </c>
+      <c r="K128">
+        <v>3987559.244250736</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.628240743</v>
+      </c>
+      <c r="G129">
+        <v>4841354.813611025</v>
+      </c>
+      <c r="H129">
+        <v>3986002.533580184</v>
+      </c>
+      <c r="I129">
+        <v>1115663.19178223</v>
+      </c>
+      <c r="J129">
+        <v>4842203.690872896</v>
+      </c>
+      <c r="K129">
+        <v>3987560.067026691</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.404606538</v>
+      </c>
+      <c r="G130">
+        <v>4841371.326427067</v>
+      </c>
+      <c r="H130">
+        <v>3986023.145288855</v>
+      </c>
+      <c r="I130">
+        <v>1115712.549237072</v>
+      </c>
+      <c r="J130">
+        <v>4842155.039263564</v>
+      </c>
+      <c r="K130">
+        <v>3987545.74117518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.392105433</v>
+      </c>
+      <c r="G131">
+        <v>4841387.839243107</v>
+      </c>
+      <c r="H131">
+        <v>3986042.431441209</v>
+      </c>
+      <c r="I131">
+        <v>1115763.122073832</v>
+      </c>
+      <c r="J131">
+        <v>4842106.387654234</v>
+      </c>
+      <c r="K131">
+        <v>3987516.266696205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.5593474</v>
+      </c>
+      <c r="G132">
+        <v>4841404.352059148</v>
+      </c>
+      <c r="H132">
+        <v>3986060.552279076</v>
+      </c>
+      <c r="I132">
+        <v>1115814.94022017</v>
+      </c>
+      <c r="J132">
+        <v>4842057.736044902</v>
+      </c>
+      <c r="K132">
+        <v>3987471.643589765</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.881103527</v>
+      </c>
+      <c r="G133">
+        <v>4841420.864875189</v>
+      </c>
+      <c r="H133">
+        <v>3986077.640636445</v>
+      </c>
+      <c r="I133">
+        <v>1115868.034340691</v>
+      </c>
+      <c r="J133">
+        <v>4842009.084435571</v>
+      </c>
+      <c r="K133">
+        <v>3987411.87185586</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.336835047</v>
+      </c>
+      <c r="G134">
+        <v>4841437.377691231</v>
+      </c>
+      <c r="H134">
+        <v>3986093.807854228</v>
+      </c>
+      <c r="I134">
+        <v>1115922.435855083</v>
+      </c>
+      <c r="J134">
+        <v>4841960.432826241</v>
+      </c>
+      <c r="K134">
+        <v>3987336.95149449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.909629661</v>
+      </c>
+      <c r="G135">
+        <v>4841453.890507272</v>
+      </c>
+      <c r="H135">
+        <v>3986109.14818081</v>
+      </c>
+      <c r="I135">
+        <v>1115978.176956719</v>
+      </c>
+      <c r="J135">
+        <v>4841911.781216909</v>
+      </c>
+      <c r="K135">
+        <v>3987246.882505655</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>26</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.585418355</v>
+      </c>
+      <c r="G136">
+        <v>4841470.403323313</v>
+      </c>
+      <c r="H136">
+        <v>3986123.742101009</v>
+      </c>
+      <c r="I136">
+        <v>1116035.290631702</v>
+      </c>
+      <c r="J136">
+        <v>4841863.129607579</v>
+      </c>
+      <c r="K136">
+        <v>3987141.664889354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.352389347</v>
+      </c>
+      <c r="G137">
+        <v>4841486.916139355</v>
+      </c>
+      <c r="H137">
+        <v>3986137.658892085</v>
+      </c>
+      <c r="I137">
+        <v>1116093.810678388</v>
+      </c>
+      <c r="J137">
+        <v>4841814.477998247</v>
+      </c>
+      <c r="K137">
+        <v>3987021.298645588</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.200543126</v>
+      </c>
+      <c r="G138">
+        <v>4841503.428955397</v>
+      </c>
+      <c r="H138">
+        <v>3986150.958612642</v>
+      </c>
+      <c r="I138">
+        <v>1116153.771727386</v>
+      </c>
+      <c r="J138">
+        <v>4841765.826388916</v>
+      </c>
+      <c r="K138">
+        <v>3986885.783774357</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>26</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.121350148</v>
+      </c>
+      <c r="G139">
+        <v>4841519.941771437</v>
+      </c>
+      <c r="H139">
+        <v>3986163.693669012</v>
+      </c>
+      <c r="I139">
+        <v>1116215.209262052</v>
+      </c>
+      <c r="J139">
+        <v>4841717.174779586</v>
+      </c>
+      <c r="K139">
+        <v>3986735.120275661</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.107484329</v>
+      </c>
+      <c r="G140">
+        <v>4841536.454587479</v>
+      </c>
+      <c r="H140">
+        <v>3986175.910062473</v>
+      </c>
+      <c r="I140">
+        <v>1116278.159639488</v>
+      </c>
+      <c r="J140">
+        <v>4841668.523170255</v>
+      </c>
+      <c r="K140">
+        <v>3986569.3081495</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>26</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.152613281</v>
+      </c>
+      <c r="G141">
+        <v>4841552.96740352</v>
+      </c>
+      <c r="H141">
+        <v>3986187.648392275</v>
+      </c>
+      <c r="I141">
+        <v>1116342.660112055</v>
+      </c>
+      <c r="J141">
+        <v>4841619.871560923</v>
+      </c>
+      <c r="K141">
+        <v>3986388.347395874</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>26</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.251231557</v>
+      </c>
+      <c r="G142">
+        <v>4841569.480219562</v>
+      </c>
+      <c r="H142">
+        <v>3986198.944669705</v>
+      </c>
+      <c r="I142">
+        <v>1116408.74884942</v>
+      </c>
+      <c r="J142">
+        <v>4841571.219951592</v>
+      </c>
+      <c r="K142">
+        <v>3986192.238014783</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>26</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.398526849</v>
+      </c>
+      <c r="G143">
+        <v>4841585.993035603</v>
+      </c>
+      <c r="H143">
+        <v>3986209.830984354</v>
+      </c>
+      <c r="I143">
+        <v>1116476.464961142</v>
+      </c>
+      <c r="J143">
+        <v>4841522.568342262</v>
+      </c>
+      <c r="K143">
+        <v>3985980.980006227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>26</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.590271722</v>
+      </c>
+      <c r="G144">
+        <v>4841602.505851644</v>
+      </c>
+      <c r="H144">
+        <v>3986220.336053666</v>
+      </c>
+      <c r="I144">
+        <v>1116545.848519817</v>
+      </c>
+      <c r="J144">
+        <v>4841473.916732931</v>
+      </c>
+      <c r="K144">
+        <v>3985754.573370205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>26</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.822735317</v>
+      </c>
+      <c r="G145">
+        <v>4841619.018667686</v>
+      </c>
+      <c r="H145">
+        <v>3986230.485679478</v>
+      </c>
+      <c r="I145">
+        <v>1116616.940584793</v>
+      </c>
+      <c r="J145">
+        <v>4841425.265123599</v>
+      </c>
+      <c r="K145">
+        <v>3985513.018106719</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>26</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.092610815</v>
+      </c>
+      <c r="G146">
+        <v>4841635.531483728</v>
+      </c>
+      <c r="H146">
+        <v>3986240.303129818</v>
+      </c>
+      <c r="I146">
+        <v>1116689.783226465</v>
+      </c>
+      <c r="J146">
+        <v>4841376.613514269</v>
+      </c>
+      <c r="K146">
+        <v>3985256.314215767</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>26</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.396955432</v>
+      </c>
+      <c r="G147">
+        <v>4841652.044299768</v>
+      </c>
+      <c r="H147">
+        <v>3986249.809460184</v>
+      </c>
+      <c r="I147">
+        <v>1116764.419551175</v>
+      </c>
+      <c r="J147">
+        <v>4841327.961904937</v>
+      </c>
+      <c r="K147">
+        <v>3984984.46169735</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.733140486</v>
+      </c>
+      <c r="G148">
+        <v>4841668.55711581</v>
+      </c>
+      <c r="H148">
+        <v>3986259.023785466</v>
+      </c>
+      <c r="I148">
+        <v>1116840.893726716</v>
+      </c>
+      <c r="J148">
+        <v>4841279.310295607</v>
+      </c>
+      <c r="K148">
+        <v>3984697.460551469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.09880957</v>
+      </c>
+      <c r="G149">
+        <v>4841685.069931851</v>
+      </c>
+      <c r="H149">
+        <v>3986267.96351133</v>
+      </c>
+      <c r="I149">
+        <v>1116919.251008475</v>
+      </c>
+      <c r="J149">
+        <v>4841230.658686275</v>
+      </c>
+      <c r="K149">
+        <v>3984395.310778122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>26</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.49184335</v>
+      </c>
+      <c r="G150">
+        <v>4841701.582747892</v>
+      </c>
+      <c r="H150">
+        <v>3986276.644532115</v>
+      </c>
+      <c r="I150">
+        <v>1116999.537766211</v>
+      </c>
+      <c r="J150">
+        <v>4841182.007076944</v>
+      </c>
+      <c r="K150">
+        <v>3984078.01237731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.910329759</v>
+      </c>
+      <c r="G151">
+        <v>4841718.095563933</v>
+      </c>
+      <c r="H151">
+        <v>3986285.081400899</v>
+      </c>
+      <c r="I151">
+        <v>1117081.801511492</v>
+      </c>
+      <c r="J151">
+        <v>4841133.355467614</v>
+      </c>
+      <c r="K151">
+        <v>3983745.565349033</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.352538649</v>
+      </c>
+      <c r="G152">
+        <v>4841734.608379974</v>
+      </c>
+      <c r="H152">
+        <v>3986293.287476283</v>
+      </c>
+      <c r="I152">
+        <v>1117166.090925821</v>
+      </c>
+      <c r="J152">
+        <v>4841084.703858281</v>
+      </c>
+      <c r="K152">
+        <v>3983397.96969329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>26</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.816900132</v>
+      </c>
+      <c r="G153">
+        <v>4841751.121196016</v>
+      </c>
+      <c r="H153">
+        <v>3986301.275049641</v>
+      </c>
+      <c r="I153">
+        <v>1117252.455889432</v>
+      </c>
+      <c r="J153">
+        <v>4841036.052248951</v>
+      </c>
+      <c r="K153">
+        <v>3983035.225410083</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>26</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.30198599</v>
+      </c>
+      <c r="G154">
+        <v>4841767.634012057</v>
+      </c>
+      <c r="H154">
+        <v>3986309.055455859</v>
+      </c>
+      <c r="I154">
+        <v>1117340.947510818</v>
+      </c>
+      <c r="J154">
+        <v>4840987.400639621</v>
+      </c>
+      <c r="K154">
+        <v>3982657.33249941</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>26</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.806493653</v>
+      </c>
+      <c r="G155">
+        <v>4841784.146828098</v>
+      </c>
+      <c r="H155">
+        <v>3986316.639170073</v>
+      </c>
+      <c r="I155">
+        <v>1117431.618156969</v>
+      </c>
+      <c r="J155">
+        <v>4840938.749030289</v>
+      </c>
+      <c r="K155">
+        <v>3982264.290961273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>26</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.329232335</v>
+      </c>
+      <c r="G156">
+        <v>4841800.65964414</v>
+      </c>
+      <c r="H156">
+        <v>3986324.035892478</v>
+      </c>
+      <c r="I156">
+        <v>1117524.521484367</v>
+      </c>
+      <c r="J156">
+        <v>4840890.097420958</v>
+      </c>
+      <c r="K156">
+        <v>3981856.10079567</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>26</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.869111004</v>
+      </c>
+      <c r="G157">
+        <v>4841817.172460182</v>
+      </c>
+      <c r="H157">
+        <v>3986331.254622931</v>
+      </c>
+      <c r="I157">
+        <v>1117619.712470732</v>
+      </c>
+      <c r="J157">
+        <v>4840841.445811627</v>
+      </c>
+      <c r="K157">
+        <v>3981432.762002602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>26</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.425127884</v>
+      </c>
+      <c r="G158">
+        <v>4841833.685276222</v>
+      </c>
+      <c r="H158">
+        <v>3986338.303726789</v>
+      </c>
+      <c r="I158">
+        <v>1117717.247447562</v>
+      </c>
+      <c r="J158">
+        <v>4840792.794202296</v>
+      </c>
+      <c r="K158">
+        <v>3980994.274582069</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>26</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.996361287</v>
+      </c>
+      <c r="G159">
+        <v>4841850.198092264</v>
+      </c>
+      <c r="H159">
+        <v>3986345.190993184</v>
+      </c>
+      <c r="I159">
+        <v>1117817.184133467</v>
+      </c>
+      <c r="J159">
+        <v>4840744.142592966</v>
+      </c>
+      <c r="K159">
+        <v>3980540.638534071</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>26</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.581961561</v>
+      </c>
+      <c r="G160">
+        <v>4841866.710908306</v>
+      </c>
+      <c r="H160">
+        <v>3986351.923686761</v>
+      </c>
+      <c r="I160">
+        <v>1117919.581668322</v>
+      </c>
+      <c r="J160">
+        <v>4840695.490983634</v>
+      </c>
+      <c r="K160">
+        <v>3980071.853858608</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>26</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G161">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H161">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I161">
+        <v>1114864.206627409</v>
+      </c>
+      <c r="J161">
+        <v>4843219.47400381</v>
+      </c>
+      <c r="K161">
+        <v>3984371.858210104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>26</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G162">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H162">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I162">
+        <v>1114893.820699556</v>
+      </c>
+      <c r="J162">
+        <v>4843170.822453753</v>
+      </c>
+      <c r="K162">
+        <v>3984675.654319275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>26</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G163">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H163">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I163">
+        <v>1114924.163990986</v>
+      </c>
+      <c r="J163">
+        <v>4843122.170903695</v>
+      </c>
+      <c r="K163">
+        <v>3984964.301761891</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G164">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H164">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I164">
+        <v>1114955.254458051</v>
+      </c>
+      <c r="J164">
+        <v>4843073.519353638</v>
+      </c>
+      <c r="K164">
+        <v>3985237.800537952</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>26</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G165">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H165">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I165">
+        <v>1114987.110499265</v>
+      </c>
+      <c r="J165">
+        <v>4843024.867803581</v>
+      </c>
+      <c r="K165">
+        <v>3985496.150647459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>26</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G166">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H166">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I166">
+        <v>1115019.750966187</v>
+      </c>
+      <c r="J166">
+        <v>4842976.216253525</v>
+      </c>
+      <c r="K166">
+        <v>3985739.352090412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G167">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H167">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I167">
+        <v>1115053.195174578</v>
+      </c>
+      <c r="J167">
+        <v>4842927.564703466</v>
+      </c>
+      <c r="K167">
+        <v>3985967.404866809</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>26</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G168">
+        <v>4841122.075280773</v>
+      </c>
+      <c r="H168">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I168">
+        <v>1115087.462915833</v>
+      </c>
+      <c r="J168">
+        <v>4842878.91315341</v>
+      </c>
+      <c r="K168">
+        <v>3986180.308976652</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>26</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.026357316</v>
+      </c>
+      <c r="G169">
+        <v>4841138.588091497</v>
+      </c>
+      <c r="H169">
+        <v>3985226.739761031</v>
+      </c>
+      <c r="I169">
+        <v>1115122.57446869</v>
+      </c>
+      <c r="J169">
+        <v>4842830.261603353</v>
+      </c>
+      <c r="K169">
+        <v>3986378.06441994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.345770766</v>
+      </c>
+      <c r="G170">
+        <v>4841155.10090222</v>
+      </c>
+      <c r="H170">
+        <v>3985425.994088379</v>
+      </c>
+      <c r="I170">
+        <v>1115158.550611235</v>
+      </c>
+      <c r="J170">
+        <v>4842781.610053296</v>
+      </c>
+      <c r="K170">
+        <v>3986560.671196674</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>26</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116501.748368249</v>
+      </c>
+      <c r="G171">
+        <v>4841171.613712945</v>
+      </c>
+      <c r="H171">
+        <v>3985544.680156</v>
+      </c>
+      <c r="I171">
+        <v>1115195.412633192</v>
+      </c>
+      <c r="J171">
+        <v>4842732.958503238</v>
+      </c>
+      <c r="K171">
+        <v>3986728.129306853</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>26</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.695589769</v>
+      </c>
+      <c r="G172">
+        <v>4841188.126523669</v>
+      </c>
+      <c r="H172">
+        <v>3985629.497066844</v>
+      </c>
+      <c r="I172">
+        <v>1115233.182348528</v>
+      </c>
+      <c r="J172">
+        <v>4842684.306953182</v>
+      </c>
+      <c r="K172">
+        <v>3986880.438750478</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>26</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.105655338</v>
+      </c>
+      <c r="G173">
+        <v>4841204.639334393</v>
+      </c>
+      <c r="H173">
+        <v>3985695.543949878</v>
+      </c>
+      <c r="I173">
+        <v>1115271.882108356</v>
+      </c>
+      <c r="J173">
+        <v>4842635.655403124</v>
+      </c>
+      <c r="K173">
+        <v>3987017.599527548</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>26</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.713187227</v>
+      </c>
+      <c r="G174">
+        <v>4841221.152145117</v>
+      </c>
+      <c r="H174">
+        <v>3985749.641470146</v>
+      </c>
+      <c r="I174">
+        <v>1115311.534814166</v>
+      </c>
+      <c r="J174">
+        <v>4842587.003853068</v>
+      </c>
+      <c r="K174">
+        <v>3987139.611638063</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>26</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.369588783</v>
+      </c>
+      <c r="G175">
+        <v>4841237.66495584</v>
+      </c>
+      <c r="H175">
+        <v>3985795.458120885</v>
+      </c>
+      <c r="I175">
+        <v>1115352.163931378</v>
+      </c>
+      <c r="J175">
+        <v>4842538.352303009</v>
+      </c>
+      <c r="K175">
+        <v>3987246.475082024</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.428082937</v>
+      </c>
+      <c r="G176">
+        <v>4841254.177766564</v>
+      </c>
+      <c r="H176">
+        <v>3985835.195720946</v>
+      </c>
+      <c r="I176">
+        <v>1115393.793503223</v>
+      </c>
+      <c r="J176">
+        <v>4842489.700752953</v>
+      </c>
+      <c r="K176">
+        <v>3987338.189859429</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>26</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.494516008</v>
+      </c>
+      <c r="G177">
+        <v>4841270.690577288</v>
+      </c>
+      <c r="H177">
+        <v>3985870.280089617</v>
+      </c>
+      <c r="I177">
+        <v>1115436.448164976</v>
+      </c>
+      <c r="J177">
+        <v>4842441.049202896</v>
+      </c>
+      <c r="K177">
+        <v>3987414.755970281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>26</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.31368924</v>
+      </c>
+      <c r="G178">
+        <v>4841287.203388012</v>
+      </c>
+      <c r="H178">
+        <v>3985901.687659566</v>
+      </c>
+      <c r="I178">
+        <v>1115480.153158532</v>
+      </c>
+      <c r="J178">
+        <v>4842392.397652839</v>
+      </c>
+      <c r="K178">
+        <v>3987476.173414578</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.712314863</v>
+      </c>
+      <c r="G179">
+        <v>4841303.716198736</v>
+      </c>
+      <c r="H179">
+        <v>3985930.116498599</v>
+      </c>
+      <c r="I179">
+        <v>1115524.934347348</v>
+      </c>
+      <c r="J179">
+        <v>4842343.746102781</v>
+      </c>
+      <c r="K179">
+        <v>3987522.44219232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.568128942</v>
+      </c>
+      <c r="G180">
+        <v>4841320.229009461</v>
+      </c>
+      <c r="H180">
+        <v>3985956.08299699</v>
+      </c>
+      <c r="I180">
+        <v>1115570.81823174</v>
+      </c>
+      <c r="J180">
+        <v>4842295.094552725</v>
+      </c>
+      <c r="K180">
+        <v>3987553.562303507</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>26</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116429.792109946</v>
+      </c>
+      <c r="G181">
+        <v>4841336.741820184</v>
+      </c>
+      <c r="H181">
+        <v>3985979.979909349</v>
+      </c>
+      <c r="I181">
+        <v>1115617.831964573</v>
+      </c>
+      <c r="J181">
+        <v>4842246.443002667</v>
+      </c>
+      <c r="K181">
+        <v>3987569.53374814</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>26</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.317713953</v>
+      </c>
+      <c r="G182">
+        <v>4841353.254630908</v>
+      </c>
+      <c r="H182">
+        <v>3986002.112922354</v>
+      </c>
+      <c r="I182">
+        <v>1115666.003367325</v>
+      </c>
+      <c r="J182">
+        <v>4842197.791452611</v>
+      </c>
+      <c r="K182">
+        <v>3987570.356526218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>26</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.094078374</v>
+      </c>
+      <c r="G183">
+        <v>4841369.767441632</v>
+      </c>
+      <c r="H183">
+        <v>3986022.724628849</v>
+      </c>
+      <c r="I183">
+        <v>1115715.360946553</v>
+      </c>
+      <c r="J183">
+        <v>4842149.139902553</v>
+      </c>
+      <c r="K183">
+        <v>3987556.030637742</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.081576027</v>
+      </c>
+      <c r="G184">
+        <v>4841386.280252356</v>
+      </c>
+      <c r="H184">
+        <v>3986042.010779169</v>
+      </c>
+      <c r="I184">
+        <v>1115765.933910761</v>
+      </c>
+      <c r="J184">
+        <v>4842100.488352496</v>
+      </c>
+      <c r="K184">
+        <v>3987526.556082711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>26</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.248816862</v>
+      </c>
+      <c r="G185">
+        <v>4841402.79306308</v>
+      </c>
+      <c r="H185">
+        <v>3986060.131615123</v>
+      </c>
+      <c r="I185">
+        <v>1115817.752187687</v>
+      </c>
+      <c r="J185">
+        <v>4842051.836802439</v>
+      </c>
+      <c r="K185">
+        <v>3987481.932861125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>26</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.570571953</v>
+      </c>
+      <c r="G186">
+        <v>4841419.305873804</v>
+      </c>
+      <c r="H186">
+        <v>3986077.219970689</v>
+      </c>
+      <c r="I186">
+        <v>1115870.84644201</v>
+      </c>
+      <c r="J186">
+        <v>4842003.185252381</v>
+      </c>
+      <c r="K186">
+        <v>3987422.160972985</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>26</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.026302519</v>
+      </c>
+      <c r="G187">
+        <v>4841435.818684528</v>
+      </c>
+      <c r="H187">
+        <v>3986093.387186766</v>
+      </c>
+      <c r="I187">
+        <v>1115925.2480935</v>
+      </c>
+      <c r="J187">
+        <v>4841954.533702325</v>
+      </c>
+      <c r="K187">
+        <v>3987347.24041829</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>26</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.599096252</v>
+      </c>
+      <c r="G188">
+        <v>4841452.331495252</v>
+      </c>
+      <c r="H188">
+        <v>3986108.727511728</v>
+      </c>
+      <c r="I188">
+        <v>1115980.989335609</v>
+      </c>
+      <c r="J188">
+        <v>4841905.882152268</v>
+      </c>
+      <c r="K188">
+        <v>3987257.171197041</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>26</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.274884128</v>
+      </c>
+      <c r="G189">
+        <v>4841468.844305975</v>
+      </c>
+      <c r="H189">
+        <v>3986123.321430387</v>
+      </c>
+      <c r="I189">
+        <v>1116038.103154524</v>
+      </c>
+      <c r="J189">
+        <v>4841857.230602211</v>
+      </c>
+      <c r="K189">
+        <v>3987151.953309237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>26</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.041854358</v>
+      </c>
+      <c r="G190">
+        <v>4841485.3571167</v>
+      </c>
+      <c r="H190">
+        <v>3986137.238219995</v>
+      </c>
+      <c r="I190">
+        <v>1116096.623348687</v>
+      </c>
+      <c r="J190">
+        <v>4841808.579052153</v>
+      </c>
+      <c r="K190">
+        <v>3987031.586754878</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>26</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116412.890007426</v>
+      </c>
+      <c r="G191">
+        <v>4841501.869927424</v>
+      </c>
+      <c r="H191">
+        <v>3986150.537939148</v>
+      </c>
+      <c r="I191">
+        <v>1116156.584548793</v>
+      </c>
+      <c r="J191">
+        <v>4841759.927502097</v>
+      </c>
+      <c r="K191">
+        <v>3986896.071533965</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>26</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116411.810813781</v>
+      </c>
+      <c r="G192">
+        <v>4841518.382738148</v>
+      </c>
+      <c r="H192">
+        <v>3986163.272994175</v>
+      </c>
+      <c r="I192">
+        <v>1116218.022238288</v>
+      </c>
+      <c r="J192">
+        <v>4841711.275952039</v>
+      </c>
+      <c r="K192">
+        <v>3986745.407646497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>26</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116410.796947336</v>
+      </c>
+      <c r="G193">
+        <v>4841534.895548872</v>
+      </c>
+      <c r="H193">
+        <v>3986175.489386346</v>
+      </c>
+      <c r="I193">
+        <v>1116280.972774365</v>
+      </c>
+      <c r="J193">
+        <v>4841662.624401983</v>
+      </c>
+      <c r="K193">
+        <v>3986579.595092474</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>26</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116409.842075699</v>
+      </c>
+      <c r="G194">
+        <v>4841551.408359596</v>
+      </c>
+      <c r="H194">
+        <v>3986187.22771491</v>
+      </c>
+      <c r="I194">
+        <v>1116345.47340948</v>
+      </c>
+      <c r="J194">
+        <v>4841613.972851925</v>
+      </c>
+      <c r="K194">
+        <v>3986398.633871897</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>26</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116408.940693418</v>
+      </c>
+      <c r="G195">
+        <v>4841567.921170319</v>
+      </c>
+      <c r="H195">
+        <v>3986198.523991148</v>
+      </c>
+      <c r="I195">
+        <v>1116411.562313395</v>
+      </c>
+      <c r="J195">
+        <v>4841565.321301868</v>
+      </c>
+      <c r="K195">
+        <v>3986202.523984765</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>26</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.087988183</v>
+      </c>
+      <c r="G196">
+        <v>4841584.433981044</v>
+      </c>
+      <c r="H196">
+        <v>3986209.410304647</v>
+      </c>
+      <c r="I196">
+        <v>1116479.278595768</v>
+      </c>
+      <c r="J196">
+        <v>4841516.669751811</v>
+      </c>
+      <c r="K196">
+        <v>3985991.265431079</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>26</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.279732557</v>
+      </c>
+      <c r="G197">
+        <v>4841600.946791767</v>
+      </c>
+      <c r="H197">
+        <v>3986219.91537285</v>
+      </c>
+      <c r="I197">
+        <v>1116548.662329297</v>
+      </c>
+      <c r="J197">
+        <v>4841468.018201754</v>
+      </c>
+      <c r="K197">
+        <v>3985764.858210837</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.512195678</v>
+      </c>
+      <c r="G198">
+        <v>4841617.459602492</v>
+      </c>
+      <c r="H198">
+        <v>3986230.064997591</v>
+      </c>
+      <c r="I198">
+        <v>1116619.754573432</v>
+      </c>
+      <c r="J198">
+        <v>4841419.366651696</v>
+      </c>
+      <c r="K198">
+        <v>3985523.302324042</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116405.782070725</v>
+      </c>
+      <c r="G199">
+        <v>4841633.972413216</v>
+      </c>
+      <c r="H199">
+        <v>3986239.882446895</v>
+      </c>
+      <c r="I199">
+        <v>1116692.597398676</v>
+      </c>
+      <c r="J199">
+        <v>4841370.71510164</v>
+      </c>
+      <c r="K199">
+        <v>3985266.597770691</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>26</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.086414913</v>
+      </c>
+      <c r="G200">
+        <v>4841650.48522394</v>
+      </c>
+      <c r="H200">
+        <v>3986249.388776258</v>
+      </c>
+      <c r="I200">
+        <v>1116767.233911476</v>
+      </c>
+      <c r="J200">
+        <v>4841322.063551582</v>
+      </c>
+      <c r="K200">
+        <v>3984994.744550786</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>26</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.422599556</v>
+      </c>
+      <c r="G201">
+        <v>4841666.998034663</v>
+      </c>
+      <c r="H201">
+        <v>3986258.603100568</v>
+      </c>
+      <c r="I201">
+        <v>1116843.70827974</v>
+      </c>
+      <c r="J201">
+        <v>4841273.412001526</v>
+      </c>
+      <c r="K201">
+        <v>3984707.742664327</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>26</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116403.788268249</v>
+      </c>
+      <c r="G202">
+        <v>4841683.510845388</v>
+      </c>
+      <c r="H202">
+        <v>3986267.542825488</v>
+      </c>
+      <c r="I202">
+        <v>1116922.065758968</v>
+      </c>
+      <c r="J202">
+        <v>4841224.760451468</v>
+      </c>
+      <c r="K202">
+        <v>3984405.592111313</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>26</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.181301654</v>
+      </c>
+      <c r="G203">
+        <v>4841700.023656111</v>
+      </c>
+      <c r="H203">
+        <v>3986276.223845358</v>
+      </c>
+      <c r="I203">
+        <v>1117002.352719034</v>
+      </c>
+      <c r="J203">
+        <v>4841176.108901411</v>
+      </c>
+      <c r="K203">
+        <v>3984088.292891744</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.599787703</v>
+      </c>
+      <c r="G204">
+        <v>4841716.536466836</v>
+      </c>
+      <c r="H204">
+        <v>3986284.660713251</v>
+      </c>
+      <c r="I204">
+        <v>1117084.616671629</v>
+      </c>
+      <c r="J204">
+        <v>4841127.457351354</v>
+      </c>
+      <c r="K204">
+        <v>3983755.845005621</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>26</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.041996249</v>
+      </c>
+      <c r="G205">
+        <v>4841733.049277559</v>
+      </c>
+      <c r="H205">
+        <v>3986292.866787769</v>
+      </c>
+      <c r="I205">
+        <v>1117168.906298375</v>
+      </c>
+      <c r="J205">
+        <v>4841078.805801297</v>
+      </c>
+      <c r="K205">
+        <v>3983408.248452942</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>26</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.506357402</v>
+      </c>
+      <c r="G206">
+        <v>4841749.562088284</v>
+      </c>
+      <c r="H206">
+        <v>3986300.854360284</v>
+      </c>
+      <c r="I206">
+        <v>1117255.271479635</v>
+      </c>
+      <c r="J206">
+        <v>4841030.154251239</v>
+      </c>
+      <c r="K206">
+        <v>3983045.50323371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>26</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116400.991442942</v>
+      </c>
+      <c r="G207">
+        <v>4841766.074899008</v>
+      </c>
+      <c r="H207">
+        <v>3986308.634765681</v>
+      </c>
+      <c r="I207">
+        <v>1117343.763324028</v>
+      </c>
+      <c r="J207">
+        <v>4840981.502701183</v>
+      </c>
+      <c r="K207">
+        <v>3982667.609347922</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>26</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.495950298</v>
+      </c>
+      <c r="G208">
+        <v>4841782.587709731</v>
+      </c>
+      <c r="H208">
+        <v>3986316.218479094</v>
+      </c>
+      <c r="I208">
+        <v>1117434.434198679</v>
+      </c>
+      <c r="J208">
+        <v>4840932.851151126</v>
+      </c>
+      <c r="K208">
+        <v>3982274.566795581</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>26</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.018688686</v>
+      </c>
+      <c r="G209">
+        <v>4841799.100520455</v>
+      </c>
+      <c r="H209">
+        <v>3986323.615200719</v>
+      </c>
+      <c r="I209">
+        <v>1117527.337760203</v>
+      </c>
+      <c r="J209">
+        <v>4840884.199601068</v>
+      </c>
+      <c r="K209">
+        <v>3981866.375576684</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>26</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.558567071</v>
+      </c>
+      <c r="G210">
+        <v>4841815.61333118</v>
+      </c>
+      <c r="H210">
+        <v>3986330.83393041</v>
+      </c>
+      <c r="I210">
+        <v>1117622.528986459</v>
+      </c>
+      <c r="J210">
+        <v>4840835.548051011</v>
+      </c>
+      <c r="K210">
+        <v>3981443.035691233</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>26</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.114583677</v>
+      </c>
+      <c r="G211">
+        <v>4841832.126141903</v>
+      </c>
+      <c r="H211">
+        <v>3986337.883033524</v>
+      </c>
+      <c r="I211">
+        <v>1117720.064209088</v>
+      </c>
+      <c r="J211">
+        <v>4840786.896500954</v>
+      </c>
+      <c r="K211">
+        <v>3981004.547139227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>26</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.685816815</v>
+      </c>
+      <c r="G212">
+        <v>4841848.638952628</v>
+      </c>
+      <c r="H212">
+        <v>3986344.770299192</v>
+      </c>
+      <c r="I212">
+        <v>1117820.001146842</v>
+      </c>
+      <c r="J212">
+        <v>4840738.244950898</v>
+      </c>
+      <c r="K212">
+        <v>3980550.909920666</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>26</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.271416833</v>
+      </c>
+      <c r="G213">
+        <v>4841865.151763352</v>
+      </c>
+      <c r="H213">
+        <v>3986351.502992058</v>
+      </c>
+      <c r="I213">
+        <v>1117922.39893975</v>
+      </c>
+      <c r="J213">
+        <v>4840689.59340084</v>
+      </c>
+      <c r="K213">
+        <v>3980082.124035552</v>
       </c>
     </row>
   </sheetData>
